--- a/raw_game_pulls/6197328_Play-By-Play for Missouri St. vs South Carolina St..xlsx
+++ b/raw_game_pulls/6197328_Play-By-Play for Missouri St. vs South Carolina St..xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddb8727edf2838dd/Documents/Development/NCAA_Markov/raw_game_pulls/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_53DDC2EE64438B36FF2D4C48BD691DF778799FBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7744DFA5-3FC3-4C69-9F41-A42452F5B7EC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -727,18 +733,9 @@
     <t>Jumper GOOD by MOST's Mayo jr., Damien</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>SCSt gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
     <t>Foul on MOST's Mayo jr., Damien</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>MOST Defensive REBOUND by Mason, Alston</t>
   </si>
   <si>
@@ -748,72 +745,30 @@
     <t>MOST Assist by Clay, Donovan</t>
   </si>
   <si>
-    <t>SCSt Turnover by Taylor, Atiba</t>
-  </si>
-  <si>
     <t>MOST Steal by Moore, Chance</t>
   </si>
   <si>
-    <t>Foul on SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by MOST's Clay, Donovan</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Subbing out for MOST - Mayo jr., Damien</t>
   </si>
   <si>
     <t>Subbing in for MOST - Ayres, Raphe</t>
   </si>
   <si>
-    <t>SCSt takes a 30-second time out.</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
     <t>MOST gets a REBOUND from a dead ball.</t>
   </si>
   <si>
-    <t>Foul on SCSt's Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Teal, Michael</t>
-  </si>
-  <si>
     <t>Layup MISSED by MOST's Moore, Chance</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Layup MISSED by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - James, Dallas</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by MOST's Lee, Matthew</t>
   </si>
   <si>
     <t>MOST Assist by Moore, Chance</t>
   </si>
   <si>
-    <t>SCSt Turnover by Everett, Davion</t>
-  </si>
-  <si>
     <t>Subbing out for MOST - Moore, Chance</t>
   </si>
   <si>
@@ -835,12 +790,6 @@
     <t>3 Pointer MISSED by MOST's Lee, Matthew</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Croskey, Omar</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Croskey, Omar</t>
-  </si>
-  <si>
     <t>MOST Steal by Edwards, Cesare</t>
   </si>
   <si>
@@ -853,84 +802,42 @@
     <t>Media timeout</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>Jumper GOOD by MOST's Mason, Alston</t>
   </si>
   <si>
     <t>MOST Assist by Lee, Matthew</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Teal, Michael</t>
-  </si>
-  <si>
     <t>MOST Defensive REBOUND by Mayo jr., Damien</t>
   </si>
   <si>
-    <t>Foul on SCSt's James, Dallas</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by MOST's Benson, N.j.</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - James, Dallas</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>MOST Turnover by Edwards, Cesare</t>
   </si>
   <si>
-    <t>Foul on SCSt's Everett, Davion</t>
-  </si>
-  <si>
     <t>Subbing out for MOST - Lee, Matthew</t>
   </si>
   <si>
     <t>Subbing in for MOST - Clay, Donovan</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Everett, Davion</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Marrow, James</t>
-  </si>
-  <si>
     <t>Slam Dunk GOOD by MOST's Benson, N.j.</t>
   </si>
   <si>
     <t>MOST Assist by Mason, Alston</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>MOST Defensive REBOUND by Benson, N.j.</t>
   </si>
   <si>
-    <t>Foul on SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by MOST's Benson, N.j.</t>
   </si>
   <si>
     <t>Subbing in for MOST - Moore, Chance</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Marrow, James</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Brown, Raquan</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Teal, Michael</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by MOST's Clay, Donovan</t>
   </si>
   <si>
@@ -940,9 +847,6 @@
     <t>3 Pointer MISSED by MOST's Mason, Alston</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Brown, Raquan</t>
-  </si>
-  <si>
     <t>MOST Defensive REBOUND by Moore, Chance</t>
   </si>
   <si>
@@ -961,30 +865,9 @@
     <t>Subbing in for MOST - Lee, Matthew</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Teal, Michael</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Alston, Shaman</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Alston, Shaman</t>
-  </si>
-  <si>
     <t>MOST Defensive REBOUND by team</t>
   </si>
   <si>
-    <t>Foul on SCSt's Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>MOST Defensive REBOUND by Clay, Donovan</t>
   </si>
   <si>
@@ -994,18 +877,9 @@
     <t>Jumper MISSED by MOST's Moore, Chance</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by MOST's Moore, Chance</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>Foul on MOST's Clay, Donovan</t>
   </si>
   <si>
@@ -1018,54 +892,15 @@
     <t>Subbing in for MOST - Mason, Alston</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>MOST Turnover by Mason, Alston</t>
   </si>
   <si>
-    <t>SCSt Steal by Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Alston, Shaman</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Everett, Davion</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Everett, Davion</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Marrow, James</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by MOST's Mason, Alston</t>
   </si>
   <si>
     <t>Foul on MOST's Moore, Chance</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Layup GOOD by MOST's Mayo jr., Damien</t>
   </si>
   <si>
@@ -1081,99 +916,30 @@
     <t>MOST Turnover by Moore, Chance</t>
   </si>
   <si>
-    <t>SCSt Steal by Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Layup MISSED by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>MOST Block by Benson, N.j.</t>
   </si>
   <si>
-    <t>SCSt Offensive REBOUND by Everett, Davion</t>
-  </si>
-  <si>
-    <t>Layup MISSED by SCSt's Everett, Davion</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Foul on MOST's Mason, Alston</t>
   </si>
   <si>
-    <t>Foul on SCSt's Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by SCSt's Everett, Davion</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by SCSt's Everett, Davion</t>
-  </si>
-  <si>
-    <t>Layup MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>Layup GOOD by MOST's Mason, Alston</t>
   </si>
   <si>
     <t>Foul on MOST's Lee, Matthew</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Steal by Simpson, Jordan</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by MOST's Moore, Chance</t>
   </si>
   <si>
-    <t>Jumper GOOD by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by MOST's Lee, Matthew</t>
   </si>
   <si>
-    <t>Layup GOOD by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>SCSt Defensive REBOUND by Teal, Michael</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by MOST's Moore, Chance</t>
   </si>
   <si>
-    <t>Subbing in for SCSt - Jones, Drayton</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by MOST's Moore, Chance</t>
   </si>
   <si>
-    <t>SCSt Turnover by Jones, Drayton</t>
-  </si>
-  <si>
     <t>MOST Turnover by Lee, Matthew</t>
   </si>
   <si>
@@ -1183,27 +949,9 @@
     <t>Free Throw GOOD by MOST's Ayres, Raphe</t>
   </si>
   <si>
-    <t>Jumper GOOD by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Alston, Shaman</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Simpson, Jordan</t>
-  </si>
-  <si>
     <t>MOST Block by Clay, Donovan</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Marrow, James</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Layup MISSED by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by MOST's Edwards, Cesare</t>
   </si>
   <si>
@@ -1216,30 +964,6 @@
     <t>MOST takes a 30-second time out.</t>
   </si>
   <si>
-    <t>Jumper GOOD by SCSt's Alston, Shaman</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's team</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Everett, Davion</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Layup MISSED by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Layup GOOD by MOST's Lee, Matthew</t>
   </si>
   <si>
@@ -1249,63 +973,27 @@
     <t>MOST Offensive REBOUND by Lee, Matthew</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by MOST's Clay, Donovan</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Alston, Shaman</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>MOST Assist by Edwards, Cesare</t>
   </si>
   <si>
-    <t>Layup GOOD by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Foul on MOST's Ayres, Raphe</t>
   </si>
   <si>
     <t>Layup GOOD by MOST's Clay, Donovan</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Everett, Davion</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Teal, Michael</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by MOST's Mason, Alston</t>
   </si>
   <si>
     <t>Layup GOOD by MOST's Edwards, Cesare</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Everett, Davion</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by MOST's Lee, Matthew</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Jumper MISSED by MOST's Lee, Matthew</t>
   </si>
   <si>
@@ -1324,12 +1012,6 @@
     <t>3 Pointer GOOD by MOST's Edwards, Cesare</t>
   </si>
   <si>
-    <t>SCSt Offensive REBOUND by Croskey, Omar</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Brown, Raquan</t>
-  </si>
-  <si>
     <t>Layup GOOD by MOST's Moore, Chance</t>
   </si>
   <si>
@@ -1346,13 +1028,337 @@
   </si>
   <si>
     <t>MOST Defensive REBOUND by Carper, Dawson</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>SCSTATE takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - James, Dallas</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Everett, Davion</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's James, Dallas</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - James, Dallas</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Everett, Davion</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Marrow, James</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Marrow, James</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Brown, Raquan</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Teal, Michael</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Alston, Shaman</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Alston, Shaman</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Alston, Shaman</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Everett, Davion</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Marrow, James</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Everett, Davion</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Teal, Michael</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Jones, Drayton</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Alston, Shaman</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Marrow, James</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Alston, Shaman</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's team</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Alston, Shaman</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Everett, Davion</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Teal, Michael</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Brown, Raquan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,13 +1421,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1459,7 +1473,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1493,6 +1507,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1527,9 +1542,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1702,14 +1718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1743,7 +1759,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1757,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1774,10 +1790,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1791,10 +1807,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1808,10 +1824,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1825,10 +1841,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1842,10 +1858,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1859,10 +1875,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1876,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1893,10 +1909,10 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1910,10 +1926,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1927,10 +1943,10 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1944,10 +1960,10 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1961,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1978,10 +1994,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1995,10 +2011,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2012,10 +2028,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2029,10 +2045,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2046,10 +2062,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2063,10 +2079,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2080,10 +2096,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2097,10 +2113,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2114,10 +2130,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2131,10 +2147,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2148,10 +2164,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2165,10 +2181,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2182,10 +2198,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2199,10 +2215,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2216,10 +2232,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2233,10 +2249,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2250,10 +2266,10 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2267,10 +2283,10 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2284,10 +2300,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2301,10 +2317,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2318,10 +2334,10 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2335,10 +2351,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2352,10 +2368,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2369,10 +2385,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2386,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2403,10 +2419,10 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2420,10 +2436,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2437,10 +2453,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2454,10 +2470,10 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2471,10 +2487,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2488,10 +2504,10 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2505,10 +2521,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2522,10 +2538,10 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2539,10 +2555,10 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2556,10 +2572,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2573,10 +2589,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2590,10 +2606,10 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2607,10 +2623,10 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2624,10 +2640,10 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2641,10 +2657,10 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2658,10 +2674,10 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2675,10 +2691,10 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2692,10 +2708,10 @@
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2709,10 +2725,10 @@
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2726,10 +2742,10 @@
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2743,10 +2759,10 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2760,10 +2776,10 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2777,10 +2793,10 @@
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2794,10 +2810,10 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2811,10 +2827,10 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2828,10 +2844,10 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2845,10 +2861,10 @@
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2862,10 +2878,10 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2879,10 +2895,10 @@
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2896,10 +2912,10 @@
         <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2913,10 +2929,10 @@
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2930,10 +2946,10 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2947,10 +2963,10 @@
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2964,10 +2980,10 @@
         <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2981,10 +2997,10 @@
         <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2998,10 +3014,10 @@
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3015,10 +3031,10 @@
         <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3032,10 +3048,10 @@
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3049,10 +3065,10 @@
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3066,10 +3082,10 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3083,10 +3099,10 @@
         <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3100,10 +3116,10 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3117,10 +3133,10 @@
         <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3134,10 +3150,10 @@
         <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3151,10 +3167,10 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3168,10 +3184,10 @@
         <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3185,10 +3201,10 @@
         <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3202,10 +3218,10 @@
         <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3219,10 +3235,10 @@
         <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3236,10 +3252,10 @@
         <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3253,10 +3269,10 @@
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3270,10 +3286,10 @@
         <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3287,10 +3303,10 @@
         <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3304,10 +3320,10 @@
         <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3321,10 +3337,10 @@
         <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3338,10 +3354,10 @@
         <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3355,10 +3371,10 @@
         <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3372,10 +3388,10 @@
         <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3389,10 +3405,10 @@
         <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3406,10 +3422,10 @@
         <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3423,10 +3439,10 @@
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3440,10 +3456,10 @@
         <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3457,10 +3473,10 @@
         <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3474,10 +3490,10 @@
         <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3491,10 +3507,10 @@
         <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3508,10 +3524,10 @@
         <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3525,10 +3541,10 @@
         <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3542,10 +3558,10 @@
         <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3559,10 +3575,10 @@
         <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3576,10 +3592,10 @@
         <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3593,10 +3609,10 @@
         <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3610,10 +3626,10 @@
         <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3627,10 +3643,10 @@
         <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3644,10 +3660,10 @@
         <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3661,10 +3677,10 @@
         <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3678,10 +3694,10 @@
         <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3695,10 +3711,10 @@
         <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3712,10 +3728,10 @@
         <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3729,10 +3745,10 @@
         <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3746,10 +3762,10 @@
         <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3763,10 +3779,10 @@
         <v>24</v>
       </c>
       <c r="E121" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3780,10 +3796,10 @@
         <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3797,10 +3813,10 @@
         <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3814,10 +3830,10 @@
         <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3831,10 +3847,10 @@
         <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3848,10 +3864,10 @@
         <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3865,10 +3881,10 @@
         <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3882,10 +3898,10 @@
         <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3899,10 +3915,10 @@
         <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3916,10 +3932,10 @@
         <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3933,10 +3949,10 @@
         <v>24</v>
       </c>
       <c r="E131" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3950,10 +3966,10 @@
         <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3967,10 +3983,10 @@
         <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3984,10 +4000,10 @@
         <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4001,10 +4017,10 @@
         <v>24</v>
       </c>
       <c r="E135" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4018,10 +4034,10 @@
         <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4035,10 +4051,10 @@
         <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4052,10 +4068,10 @@
         <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4069,10 +4085,10 @@
         <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4086,10 +4102,10 @@
         <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4103,10 +4119,10 @@
         <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4120,10 +4136,10 @@
         <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4137,10 +4153,10 @@
         <v>24</v>
       </c>
       <c r="E143" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4154,10 +4170,10 @@
         <v>24</v>
       </c>
       <c r="E144" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4171,10 +4187,10 @@
         <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4188,10 +4204,10 @@
         <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4205,10 +4221,10 @@
         <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4222,10 +4238,10 @@
         <v>26</v>
       </c>
       <c r="E148" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4239,10 +4255,10 @@
         <v>26</v>
       </c>
       <c r="E149" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4256,10 +4272,10 @@
         <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4273,10 +4289,10 @@
         <v>26</v>
       </c>
       <c r="E151" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4290,10 +4306,10 @@
         <v>28</v>
       </c>
       <c r="E152" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4307,10 +4323,10 @@
         <v>28</v>
       </c>
       <c r="E153" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4324,10 +4340,10 @@
         <v>28</v>
       </c>
       <c r="E154" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4341,10 +4357,10 @@
         <v>28</v>
       </c>
       <c r="E155" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4358,10 +4374,10 @@
         <v>28</v>
       </c>
       <c r="E156" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4375,10 +4391,10 @@
         <v>28</v>
       </c>
       <c r="E157" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4392,10 +4408,10 @@
         <v>28</v>
       </c>
       <c r="E158" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4409,10 +4425,10 @@
         <v>28</v>
       </c>
       <c r="E159" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4426,10 +4442,10 @@
         <v>28</v>
       </c>
       <c r="E160" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4443,10 +4459,10 @@
         <v>28</v>
       </c>
       <c r="E161" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4460,10 +4476,10 @@
         <v>28</v>
       </c>
       <c r="E162" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4477,10 +4493,10 @@
         <v>28</v>
       </c>
       <c r="E163" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4494,10 +4510,10 @@
         <v>28</v>
       </c>
       <c r="E164" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4511,10 +4527,10 @@
         <v>28</v>
       </c>
       <c r="E165" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4528,10 +4544,10 @@
         <v>28</v>
       </c>
       <c r="E166" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4545,10 +4561,10 @@
         <v>28</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4562,10 +4578,10 @@
         <v>28</v>
       </c>
       <c r="E168" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4579,10 +4595,10 @@
         <v>28</v>
       </c>
       <c r="E169" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4596,10 +4612,10 @@
         <v>28</v>
       </c>
       <c r="E170" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4613,10 +4629,10 @@
         <v>28</v>
       </c>
       <c r="E171" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4630,10 +4646,10 @@
         <v>28</v>
       </c>
       <c r="E172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4647,10 +4663,10 @@
         <v>28</v>
       </c>
       <c r="E173" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4664,10 +4680,10 @@
         <v>28</v>
       </c>
       <c r="E174" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4681,10 +4697,10 @@
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4698,10 +4714,10 @@
         <v>30</v>
       </c>
       <c r="E176" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4715,10 +4731,10 @@
         <v>30</v>
       </c>
       <c r="E177" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4732,10 +4748,10 @@
         <v>30</v>
       </c>
       <c r="E178" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4749,10 +4765,10 @@
         <v>30</v>
       </c>
       <c r="E179" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4766,10 +4782,10 @@
         <v>30</v>
       </c>
       <c r="E180" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4783,10 +4799,10 @@
         <v>30</v>
       </c>
       <c r="E181" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4800,10 +4816,10 @@
         <v>30</v>
       </c>
       <c r="E182" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4817,10 +4833,10 @@
         <v>30</v>
       </c>
       <c r="E183" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4834,10 +4850,10 @@
         <v>30</v>
       </c>
       <c r="E184" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4851,10 +4867,10 @@
         <v>30</v>
       </c>
       <c r="E185" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4868,10 +4884,10 @@
         <v>30</v>
       </c>
       <c r="E186" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4885,10 +4901,10 @@
         <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4902,10 +4918,10 @@
         <v>30</v>
       </c>
       <c r="E188" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4919,10 +4935,10 @@
         <v>30</v>
       </c>
       <c r="E189" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4936,10 +4952,10 @@
         <v>30</v>
       </c>
       <c r="E190" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4953,10 +4969,10 @@
         <v>30</v>
       </c>
       <c r="E191" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4970,10 +4986,10 @@
         <v>30</v>
       </c>
       <c r="E192" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4987,10 +5003,10 @@
         <v>30</v>
       </c>
       <c r="E193" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5004,10 +5020,10 @@
         <v>30</v>
       </c>
       <c r="E194" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5021,10 +5037,10 @@
         <v>30</v>
       </c>
       <c r="E195" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5038,10 +5054,10 @@
         <v>30</v>
       </c>
       <c r="E196" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5055,10 +5071,10 @@
         <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5072,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5089,10 +5105,10 @@
         <v>30</v>
       </c>
       <c r="E199" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5106,10 +5122,10 @@
         <v>30</v>
       </c>
       <c r="E200" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5123,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="E201" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5140,10 +5156,10 @@
         <v>30</v>
       </c>
       <c r="E202" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5157,10 +5173,10 @@
         <v>30</v>
       </c>
       <c r="E203" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5174,10 +5190,10 @@
         <v>30</v>
       </c>
       <c r="E204" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5191,10 +5207,10 @@
         <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5208,10 +5224,10 @@
         <v>32</v>
       </c>
       <c r="E206" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5225,10 +5241,10 @@
         <v>32</v>
       </c>
       <c r="E207" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5242,10 +5258,10 @@
         <v>32</v>
       </c>
       <c r="E208" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5259,10 +5275,10 @@
         <v>32</v>
       </c>
       <c r="E209" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5276,10 +5292,10 @@
         <v>32</v>
       </c>
       <c r="E210" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5293,10 +5309,10 @@
         <v>32</v>
       </c>
       <c r="E211" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5310,10 +5326,10 @@
         <v>32</v>
       </c>
       <c r="E212" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5327,10 +5343,10 @@
         <v>32</v>
       </c>
       <c r="E213" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5344,10 +5360,10 @@
         <v>32</v>
       </c>
       <c r="E214" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5361,10 +5377,10 @@
         <v>32</v>
       </c>
       <c r="E215" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5378,10 +5394,10 @@
         <v>32</v>
       </c>
       <c r="E216" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5395,10 +5411,10 @@
         <v>32</v>
       </c>
       <c r="E217" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5412,10 +5428,10 @@
         <v>32</v>
       </c>
       <c r="E218" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5429,10 +5445,10 @@
         <v>32</v>
       </c>
       <c r="E219" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5446,10 +5462,10 @@
         <v>32</v>
       </c>
       <c r="E220" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5463,10 +5479,10 @@
         <v>32</v>
       </c>
       <c r="E221" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5480,10 +5496,10 @@
         <v>32</v>
       </c>
       <c r="E222" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5497,10 +5513,10 @@
         <v>32</v>
       </c>
       <c r="E223" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5514,10 +5530,10 @@
         <v>32</v>
       </c>
       <c r="E224" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5531,10 +5547,10 @@
         <v>32</v>
       </c>
       <c r="E225" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5548,10 +5564,10 @@
         <v>33</v>
       </c>
       <c r="E226" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5565,10 +5581,10 @@
         <v>33</v>
       </c>
       <c r="E227" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5582,10 +5598,10 @@
         <v>33</v>
       </c>
       <c r="E228" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5599,10 +5615,10 @@
         <v>33</v>
       </c>
       <c r="E229" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5616,10 +5632,10 @@
         <v>33</v>
       </c>
       <c r="E230" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5633,10 +5649,10 @@
         <v>33</v>
       </c>
       <c r="E231" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5650,10 +5666,10 @@
         <v>33</v>
       </c>
       <c r="E232" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5667,10 +5683,10 @@
         <v>33</v>
       </c>
       <c r="E233" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5684,10 +5700,10 @@
         <v>33</v>
       </c>
       <c r="E234" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5701,10 +5717,10 @@
         <v>34</v>
       </c>
       <c r="E235" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5718,10 +5734,10 @@
         <v>34</v>
       </c>
       <c r="E236" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5735,10 +5751,10 @@
         <v>34</v>
       </c>
       <c r="E237" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5752,10 +5768,10 @@
         <v>34</v>
       </c>
       <c r="E238" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5769,10 +5785,10 @@
         <v>34</v>
       </c>
       <c r="E239" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5786,10 +5802,10 @@
         <v>34</v>
       </c>
       <c r="E240" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5803,10 +5819,10 @@
         <v>34</v>
       </c>
       <c r="E241" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5820,10 +5836,10 @@
         <v>34</v>
       </c>
       <c r="E242" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5837,10 +5853,10 @@
         <v>34</v>
       </c>
       <c r="E243" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5854,10 +5870,10 @@
         <v>34</v>
       </c>
       <c r="E244" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5871,10 +5887,10 @@
         <v>35</v>
       </c>
       <c r="E245" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5888,10 +5904,10 @@
         <v>36</v>
       </c>
       <c r="E246" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5905,10 +5921,10 @@
         <v>36</v>
       </c>
       <c r="E247" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5922,10 +5938,10 @@
         <v>36</v>
       </c>
       <c r="E248" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5939,10 +5955,10 @@
         <v>36</v>
       </c>
       <c r="E249" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5956,10 +5972,10 @@
         <v>36</v>
       </c>
       <c r="E250" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5973,10 +5989,10 @@
         <v>36</v>
       </c>
       <c r="E251" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5990,10 +6006,10 @@
         <v>36</v>
       </c>
       <c r="E252" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -6007,10 +6023,10 @@
         <v>36</v>
       </c>
       <c r="E253" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -6024,10 +6040,10 @@
         <v>36</v>
       </c>
       <c r="E254" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -6041,10 +6057,10 @@
         <v>36</v>
       </c>
       <c r="E255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6058,10 +6074,10 @@
         <v>36</v>
       </c>
       <c r="E256" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -6075,10 +6091,10 @@
         <v>36</v>
       </c>
       <c r="E257" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1</v>
       </c>
@@ -6092,10 +6108,10 @@
         <v>36</v>
       </c>
       <c r="E258" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1</v>
       </c>
@@ -6109,10 +6125,10 @@
         <v>36</v>
       </c>
       <c r="E259" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -6126,10 +6142,10 @@
         <v>36</v>
       </c>
       <c r="E260" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -6143,10 +6159,10 @@
         <v>36</v>
       </c>
       <c r="E261" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1</v>
       </c>
@@ -6160,10 +6176,10 @@
         <v>37</v>
       </c>
       <c r="E262" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
@@ -6177,10 +6193,10 @@
         <v>37</v>
       </c>
       <c r="E263" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1</v>
       </c>
@@ -6194,10 +6210,10 @@
         <v>37</v>
       </c>
       <c r="E264" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
@@ -6211,10 +6227,10 @@
         <v>37</v>
       </c>
       <c r="E265" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -6228,10 +6244,10 @@
         <v>37</v>
       </c>
       <c r="E266" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1</v>
       </c>
@@ -6245,10 +6261,10 @@
         <v>37</v>
       </c>
       <c r="E267" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
@@ -6262,10 +6278,10 @@
         <v>37</v>
       </c>
       <c r="E268" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -6279,10 +6295,10 @@
         <v>37</v>
       </c>
       <c r="E269" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -6296,10 +6312,10 @@
         <v>37</v>
       </c>
       <c r="E270" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -6313,10 +6329,10 @@
         <v>37</v>
       </c>
       <c r="E271" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -6330,10 +6346,10 @@
         <v>37</v>
       </c>
       <c r="E272" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -6347,10 +6363,10 @@
         <v>38</v>
       </c>
       <c r="E273" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -6364,10 +6380,10 @@
         <v>38</v>
       </c>
       <c r="E274" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
@@ -6381,10 +6397,10 @@
         <v>38</v>
       </c>
       <c r="E275" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
@@ -6398,10 +6414,10 @@
         <v>39</v>
       </c>
       <c r="E276" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -6415,10 +6431,10 @@
         <v>39</v>
       </c>
       <c r="E277" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -6432,10 +6448,10 @@
         <v>39</v>
       </c>
       <c r="E278" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -6449,10 +6465,10 @@
         <v>39</v>
       </c>
       <c r="E279" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
@@ -6466,10 +6482,10 @@
         <v>40</v>
       </c>
       <c r="E280" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -6483,10 +6499,10 @@
         <v>40</v>
       </c>
       <c r="E281" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1</v>
       </c>
@@ -6500,10 +6516,10 @@
         <v>40</v>
       </c>
       <c r="E282" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -6517,10 +6533,10 @@
         <v>40</v>
       </c>
       <c r="E283" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -6534,10 +6550,10 @@
         <v>40</v>
       </c>
       <c r="E284" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -6551,10 +6567,10 @@
         <v>41</v>
       </c>
       <c r="E285" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -6568,10 +6584,10 @@
         <v>41</v>
       </c>
       <c r="E286" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -6585,10 +6601,10 @@
         <v>41</v>
       </c>
       <c r="E287" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -6602,10 +6618,10 @@
         <v>41</v>
       </c>
       <c r="E288" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -6619,10 +6635,10 @@
         <v>41</v>
       </c>
       <c r="E289" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6636,10 +6652,10 @@
         <v>41</v>
       </c>
       <c r="E290" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -6653,10 +6669,10 @@
         <v>41</v>
       </c>
       <c r="E291" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -6670,10 +6686,10 @@
         <v>41</v>
       </c>
       <c r="E292" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1</v>
       </c>
@@ -6687,10 +6703,10 @@
         <v>41</v>
       </c>
       <c r="E293" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1</v>
       </c>
@@ -6704,10 +6720,10 @@
         <v>41</v>
       </c>
       <c r="E294" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
@@ -6721,10 +6737,10 @@
         <v>41</v>
       </c>
       <c r="E295" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1</v>
       </c>
@@ -6738,10 +6754,10 @@
         <v>41</v>
       </c>
       <c r="E296" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1</v>
       </c>
@@ -6755,10 +6771,10 @@
         <v>41</v>
       </c>
       <c r="E297" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
@@ -6772,10 +6788,10 @@
         <v>41</v>
       </c>
       <c r="E298" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1</v>
       </c>
@@ -6789,10 +6805,10 @@
         <v>41</v>
       </c>
       <c r="E299" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1</v>
       </c>
@@ -6806,10 +6822,10 @@
         <v>42</v>
       </c>
       <c r="E300" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1</v>
       </c>
@@ -6823,10 +6839,10 @@
         <v>42</v>
       </c>
       <c r="E301" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -6840,10 +6856,10 @@
         <v>42</v>
       </c>
       <c r="E302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
@@ -6857,10 +6873,10 @@
         <v>42</v>
       </c>
       <c r="E303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1</v>
       </c>
@@ -6874,10 +6890,10 @@
         <v>42</v>
       </c>
       <c r="E304" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -6891,10 +6907,10 @@
         <v>42</v>
       </c>
       <c r="E305" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1</v>
       </c>
@@ -6908,10 +6924,10 @@
         <v>42</v>
       </c>
       <c r="E306" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
@@ -6925,10 +6941,10 @@
         <v>42</v>
       </c>
       <c r="E307" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -6942,10 +6958,10 @@
         <v>42</v>
       </c>
       <c r="E308" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1</v>
       </c>
@@ -6959,10 +6975,10 @@
         <v>44</v>
       </c>
       <c r="E309" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
@@ -6976,10 +6992,10 @@
         <v>44</v>
       </c>
       <c r="E310" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
@@ -6993,10 +7009,10 @@
         <v>44</v>
       </c>
       <c r="E311" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1</v>
       </c>
@@ -7010,10 +7026,10 @@
         <v>44</v>
       </c>
       <c r="E312" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2</v>
       </c>
@@ -7027,10 +7043,10 @@
         <v>44</v>
       </c>
       <c r="E313" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2</v>
       </c>
@@ -7044,10 +7060,10 @@
         <v>44</v>
       </c>
       <c r="E314" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7061,10 +7077,10 @@
         <v>44</v>
       </c>
       <c r="E315" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7078,10 +7094,10 @@
         <v>44</v>
       </c>
       <c r="E316" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7095,10 +7111,10 @@
         <v>44</v>
       </c>
       <c r="E317" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7112,10 +7128,10 @@
         <v>44</v>
       </c>
       <c r="E318" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7129,10 +7145,10 @@
         <v>44</v>
       </c>
       <c r="E319" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7146,10 +7162,10 @@
         <v>44</v>
       </c>
       <c r="E320" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7163,10 +7179,10 @@
         <v>44</v>
       </c>
       <c r="E321" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7180,10 +7196,10 @@
         <v>44</v>
       </c>
       <c r="E322" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7197,10 +7213,10 @@
         <v>44</v>
       </c>
       <c r="E323" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7214,10 +7230,10 @@
         <v>44</v>
       </c>
       <c r="E324" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7231,10 +7247,10 @@
         <v>45</v>
       </c>
       <c r="E325" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7248,10 +7264,10 @@
         <v>46</v>
       </c>
       <c r="E326" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7265,10 +7281,10 @@
         <v>46</v>
       </c>
       <c r="E327" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7282,10 +7298,10 @@
         <v>46</v>
       </c>
       <c r="E328" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7299,10 +7315,10 @@
         <v>46</v>
       </c>
       <c r="E329" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7316,10 +7332,10 @@
         <v>46</v>
       </c>
       <c r="E330" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7333,10 +7349,10 @@
         <v>46</v>
       </c>
       <c r="E331" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7350,10 +7366,10 @@
         <v>46</v>
       </c>
       <c r="E332" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7367,10 +7383,10 @@
         <v>46</v>
       </c>
       <c r="E333" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7384,10 +7400,10 @@
         <v>46</v>
       </c>
       <c r="E334" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7401,10 +7417,10 @@
         <v>46</v>
       </c>
       <c r="E335" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7418,10 +7434,10 @@
         <v>46</v>
       </c>
       <c r="E336" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7435,10 +7451,10 @@
         <v>46</v>
       </c>
       <c r="E337" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7452,10 +7468,10 @@
         <v>46</v>
       </c>
       <c r="E338" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7469,10 +7485,10 @@
         <v>46</v>
       </c>
       <c r="E339" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7486,10 +7502,10 @@
         <v>46</v>
       </c>
       <c r="E340" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7503,10 +7519,10 @@
         <v>46</v>
       </c>
       <c r="E341" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7520,10 +7536,10 @@
         <v>46</v>
       </c>
       <c r="E342" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7537,10 +7553,10 @@
         <v>46</v>
       </c>
       <c r="E343" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7554,10 +7570,10 @@
         <v>46</v>
       </c>
       <c r="E344" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7571,10 +7587,10 @@
         <v>46</v>
       </c>
       <c r="E345" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7588,10 +7604,10 @@
         <v>46</v>
       </c>
       <c r="E346" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7605,10 +7621,10 @@
         <v>46</v>
       </c>
       <c r="E347" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7622,10 +7638,10 @@
         <v>46</v>
       </c>
       <c r="E348" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7639,10 +7655,10 @@
         <v>46</v>
       </c>
       <c r="E349" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7656,10 +7672,10 @@
         <v>46</v>
       </c>
       <c r="E350" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7673,10 +7689,10 @@
         <v>46</v>
       </c>
       <c r="E351" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7690,10 +7706,10 @@
         <v>46</v>
       </c>
       <c r="E352" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7707,10 +7723,10 @@
         <v>46</v>
       </c>
       <c r="E353" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7724,10 +7740,10 @@
         <v>48</v>
       </c>
       <c r="E354" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7741,10 +7757,10 @@
         <v>48</v>
       </c>
       <c r="E355" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7758,10 +7774,10 @@
         <v>48</v>
       </c>
       <c r="E356" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7775,10 +7791,10 @@
         <v>48</v>
       </c>
       <c r="E357" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7792,10 +7808,10 @@
         <v>48</v>
       </c>
       <c r="E358" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7809,10 +7825,10 @@
         <v>48</v>
       </c>
       <c r="E359" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7826,10 +7842,10 @@
         <v>48</v>
       </c>
       <c r="E360" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7843,10 +7859,10 @@
         <v>48</v>
       </c>
       <c r="E361" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7860,10 +7876,10 @@
         <v>48</v>
       </c>
       <c r="E362" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7877,10 +7893,10 @@
         <v>48</v>
       </c>
       <c r="E363" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7894,10 +7910,10 @@
         <v>48</v>
       </c>
       <c r="E364" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7911,10 +7927,10 @@
         <v>48</v>
       </c>
       <c r="E365" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2</v>
       </c>
@@ -7928,10 +7944,10 @@
         <v>48</v>
       </c>
       <c r="E366" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2</v>
       </c>
@@ -7945,10 +7961,10 @@
         <v>48</v>
       </c>
       <c r="E367" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2</v>
       </c>
@@ -7962,10 +7978,10 @@
         <v>48</v>
       </c>
       <c r="E368" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2</v>
       </c>
@@ -7979,10 +7995,10 @@
         <v>48</v>
       </c>
       <c r="E369" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2</v>
       </c>
@@ -7996,10 +8012,10 @@
         <v>48</v>
       </c>
       <c r="E370" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2</v>
       </c>
@@ -8013,10 +8029,10 @@
         <v>48</v>
       </c>
       <c r="E371" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2</v>
       </c>
@@ -8030,10 +8046,10 @@
         <v>48</v>
       </c>
       <c r="E372" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2</v>
       </c>
@@ -8047,10 +8063,10 @@
         <v>48</v>
       </c>
       <c r="E373" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2</v>
       </c>
@@ -8064,10 +8080,10 @@
         <v>48</v>
       </c>
       <c r="E374" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8081,10 +8097,10 @@
         <v>50</v>
       </c>
       <c r="E375" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8098,10 +8114,10 @@
         <v>50</v>
       </c>
       <c r="E376" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8115,10 +8131,10 @@
         <v>50</v>
       </c>
       <c r="E377" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8132,10 +8148,10 @@
         <v>50</v>
       </c>
       <c r="E378" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8149,10 +8165,10 @@
         <v>50</v>
       </c>
       <c r="E379" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8166,10 +8182,10 @@
         <v>50</v>
       </c>
       <c r="E380" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8183,10 +8199,10 @@
         <v>50</v>
       </c>
       <c r="E381" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8200,10 +8216,10 @@
         <v>50</v>
       </c>
       <c r="E382" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8217,10 +8233,10 @@
         <v>50</v>
       </c>
       <c r="E383" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8234,10 +8250,10 @@
         <v>51</v>
       </c>
       <c r="E384" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8251,10 +8267,10 @@
         <v>52</v>
       </c>
       <c r="E385" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8268,10 +8284,10 @@
         <v>52</v>
       </c>
       <c r="E386" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8285,10 +8301,10 @@
         <v>52</v>
       </c>
       <c r="E387" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8302,10 +8318,10 @@
         <v>52</v>
       </c>
       <c r="E388" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8319,10 +8335,10 @@
         <v>52</v>
       </c>
       <c r="E389" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8336,10 +8352,10 @@
         <v>52</v>
       </c>
       <c r="E390" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8353,10 +8369,10 @@
         <v>55</v>
       </c>
       <c r="E391" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8370,10 +8386,10 @@
         <v>55</v>
       </c>
       <c r="E392" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8387,10 +8403,10 @@
         <v>55</v>
       </c>
       <c r="E393" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8404,10 +8420,10 @@
         <v>55</v>
       </c>
       <c r="E394" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8421,10 +8437,10 @@
         <v>55</v>
       </c>
       <c r="E395" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8438,10 +8454,10 @@
         <v>55</v>
       </c>
       <c r="E396" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8455,10 +8471,10 @@
         <v>55</v>
       </c>
       <c r="E397" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8472,10 +8488,10 @@
         <v>55</v>
       </c>
       <c r="E398" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8489,10 +8505,10 @@
         <v>56</v>
       </c>
       <c r="E399" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8506,10 +8522,10 @@
         <v>57</v>
       </c>
       <c r="E400" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8523,10 +8539,10 @@
         <v>57</v>
       </c>
       <c r="E401" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8540,10 +8556,10 @@
         <v>57</v>
       </c>
       <c r="E402" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8557,10 +8573,10 @@
         <v>57</v>
       </c>
       <c r="E403" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8574,10 +8590,10 @@
         <v>57</v>
       </c>
       <c r="E404" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8591,10 +8607,10 @@
         <v>57</v>
       </c>
       <c r="E405" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8608,10 +8624,10 @@
         <v>57</v>
       </c>
       <c r="E406" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8625,10 +8641,10 @@
         <v>57</v>
       </c>
       <c r="E407" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8642,10 +8658,10 @@
         <v>57</v>
       </c>
       <c r="E408" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8659,10 +8675,10 @@
         <v>57</v>
       </c>
       <c r="E409" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8676,10 +8692,10 @@
         <v>57</v>
       </c>
       <c r="E410" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8693,10 +8709,10 @@
         <v>57</v>
       </c>
       <c r="E411" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8710,10 +8726,10 @@
         <v>57</v>
       </c>
       <c r="E412" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8727,10 +8743,10 @@
         <v>57</v>
       </c>
       <c r="E413" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8744,10 +8760,10 @@
         <v>57</v>
       </c>
       <c r="E414" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8761,10 +8777,10 @@
         <v>57</v>
       </c>
       <c r="E415" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8778,10 +8794,10 @@
         <v>57</v>
       </c>
       <c r="E416" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8795,10 +8811,10 @@
         <v>57</v>
       </c>
       <c r="E417" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8812,10 +8828,10 @@
         <v>57</v>
       </c>
       <c r="E418" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8829,10 +8845,10 @@
         <v>57</v>
       </c>
       <c r="E419" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8846,10 +8862,10 @@
         <v>57</v>
       </c>
       <c r="E420" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8863,10 +8879,10 @@
         <v>57</v>
       </c>
       <c r="E421" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8880,10 +8896,10 @@
         <v>59</v>
       </c>
       <c r="E422" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8897,10 +8913,10 @@
         <v>59</v>
       </c>
       <c r="E423" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8914,10 +8930,10 @@
         <v>59</v>
       </c>
       <c r="E424" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2</v>
       </c>
@@ -8931,10 +8947,10 @@
         <v>59</v>
       </c>
       <c r="E425" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8948,10 +8964,10 @@
         <v>59</v>
       </c>
       <c r="E426" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8965,10 +8981,10 @@
         <v>59</v>
       </c>
       <c r="E427" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8982,10 +8998,10 @@
         <v>59</v>
       </c>
       <c r="E428" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2</v>
       </c>
@@ -8999,10 +9015,10 @@
         <v>59</v>
       </c>
       <c r="E429" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2</v>
       </c>
@@ -9016,10 +9032,10 @@
         <v>59</v>
       </c>
       <c r="E430" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2</v>
       </c>
@@ -9033,10 +9049,10 @@
         <v>59</v>
       </c>
       <c r="E431" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2</v>
       </c>
@@ -9050,10 +9066,10 @@
         <v>59</v>
       </c>
       <c r="E432" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2</v>
       </c>
@@ -9067,10 +9083,10 @@
         <v>59</v>
       </c>
       <c r="E433" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2</v>
       </c>
@@ -9084,10 +9100,10 @@
         <v>59</v>
       </c>
       <c r="E434" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9101,10 +9117,10 @@
         <v>59</v>
       </c>
       <c r="E435" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9118,10 +9134,10 @@
         <v>59</v>
       </c>
       <c r="E436" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9135,10 +9151,10 @@
         <v>59</v>
       </c>
       <c r="E437" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9152,10 +9168,10 @@
         <v>59</v>
       </c>
       <c r="E438" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9169,10 +9185,10 @@
         <v>59</v>
       </c>
       <c r="E439" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9186,10 +9202,10 @@
         <v>59</v>
       </c>
       <c r="E440" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9203,10 +9219,10 @@
         <v>59</v>
       </c>
       <c r="E441" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9220,10 +9236,10 @@
         <v>62</v>
       </c>
       <c r="E442" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9237,10 +9253,10 @@
         <v>62</v>
       </c>
       <c r="E443" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9254,10 +9270,10 @@
         <v>62</v>
       </c>
       <c r="E444" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9271,10 +9287,10 @@
         <v>62</v>
       </c>
       <c r="E445" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9288,10 +9304,10 @@
         <v>64</v>
       </c>
       <c r="E446" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9305,10 +9321,10 @@
         <v>64</v>
       </c>
       <c r="E447" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9322,10 +9338,10 @@
         <v>64</v>
       </c>
       <c r="E448" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9339,10 +9355,10 @@
         <v>64</v>
       </c>
       <c r="E449" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9356,10 +9372,10 @@
         <v>64</v>
       </c>
       <c r="E450" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9373,10 +9389,10 @@
         <v>64</v>
       </c>
       <c r="E451" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9390,10 +9406,10 @@
         <v>64</v>
       </c>
       <c r="E452" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9407,10 +9423,10 @@
         <v>64</v>
       </c>
       <c r="E453" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9424,10 +9440,10 @@
         <v>64</v>
       </c>
       <c r="E454" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9441,10 +9457,10 @@
         <v>64</v>
       </c>
       <c r="E455" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9458,10 +9474,10 @@
         <v>65</v>
       </c>
       <c r="E456" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9475,10 +9491,10 @@
         <v>66</v>
       </c>
       <c r="E457" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9492,10 +9508,10 @@
         <v>66</v>
       </c>
       <c r="E458" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9509,10 +9525,10 @@
         <v>66</v>
       </c>
       <c r="E459" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9526,10 +9542,10 @@
         <v>66</v>
       </c>
       <c r="E460" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9543,10 +9559,10 @@
         <v>66</v>
       </c>
       <c r="E461" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9560,10 +9576,10 @@
         <v>66</v>
       </c>
       <c r="E462" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9577,10 +9593,10 @@
         <v>66</v>
       </c>
       <c r="E463" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9594,10 +9610,10 @@
         <v>66</v>
       </c>
       <c r="E464" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9611,10 +9627,10 @@
         <v>66</v>
       </c>
       <c r="E465" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9628,10 +9644,10 @@
         <v>66</v>
       </c>
       <c r="E466" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9645,10 +9661,10 @@
         <v>66</v>
       </c>
       <c r="E467" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9662,10 +9678,10 @@
         <v>66</v>
       </c>
       <c r="E468" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9679,10 +9695,10 @@
         <v>66</v>
       </c>
       <c r="E469" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9696,10 +9712,10 @@
         <v>66</v>
       </c>
       <c r="E470" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9713,10 +9729,10 @@
         <v>66</v>
       </c>
       <c r="E471" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9730,10 +9746,10 @@
         <v>68</v>
       </c>
       <c r="E472" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9747,10 +9763,10 @@
         <v>68</v>
       </c>
       <c r="E473" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9764,10 +9780,10 @@
         <v>68</v>
       </c>
       <c r="E474" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2</v>
       </c>
@@ -9781,10 +9797,10 @@
         <v>68</v>
       </c>
       <c r="E475" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2</v>
       </c>
@@ -9798,10 +9814,10 @@
         <v>70</v>
       </c>
       <c r="E476" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9815,10 +9831,10 @@
         <v>70</v>
       </c>
       <c r="E477" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2</v>
       </c>
@@ -9832,10 +9848,10 @@
         <v>70</v>
       </c>
       <c r="E478" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2</v>
       </c>
@@ -9849,10 +9865,10 @@
         <v>70</v>
       </c>
       <c r="E479" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9866,10 +9882,10 @@
         <v>70</v>
       </c>
       <c r="E480" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2</v>
       </c>
@@ -9883,10 +9899,10 @@
         <v>70</v>
       </c>
       <c r="E481" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9900,10 +9916,10 @@
         <v>70</v>
       </c>
       <c r="E482" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2</v>
       </c>
@@ -9917,10 +9933,10 @@
         <v>70</v>
       </c>
       <c r="E483" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2</v>
       </c>
@@ -9934,10 +9950,10 @@
         <v>70</v>
       </c>
       <c r="E484" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2</v>
       </c>
@@ -9951,10 +9967,10 @@
         <v>70</v>
       </c>
       <c r="E485" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2</v>
       </c>
@@ -9968,10 +9984,10 @@
         <v>70</v>
       </c>
       <c r="E486" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2</v>
       </c>
@@ -9985,10 +10001,10 @@
         <v>70</v>
       </c>
       <c r="E487" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2</v>
       </c>
@@ -10002,10 +10018,10 @@
         <v>70</v>
       </c>
       <c r="E488" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2</v>
       </c>
@@ -10019,10 +10035,10 @@
         <v>70</v>
       </c>
       <c r="E489" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2</v>
       </c>
@@ -10036,10 +10052,10 @@
         <v>70</v>
       </c>
       <c r="E490" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2</v>
       </c>
@@ -10053,10 +10069,10 @@
         <v>71</v>
       </c>
       <c r="E491" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2</v>
       </c>
@@ -10070,10 +10086,10 @@
         <v>71</v>
       </c>
       <c r="E492" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2</v>
       </c>
@@ -10087,10 +10103,10 @@
         <v>71</v>
       </c>
       <c r="E493" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2</v>
       </c>
@@ -10104,10 +10120,10 @@
         <v>71</v>
       </c>
       <c r="E494" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10121,10 +10137,10 @@
         <v>71</v>
       </c>
       <c r="E495" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2</v>
       </c>
@@ -10138,10 +10154,10 @@
         <v>71</v>
       </c>
       <c r="E496" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10155,10 +10171,10 @@
         <v>71</v>
       </c>
       <c r="E497" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10172,10 +10188,10 @@
         <v>71</v>
       </c>
       <c r="E498" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10189,10 +10205,10 @@
         <v>71</v>
       </c>
       <c r="E499" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10206,10 +10222,10 @@
         <v>71</v>
       </c>
       <c r="E500" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10223,10 +10239,10 @@
         <v>71</v>
       </c>
       <c r="E501" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10240,10 +10256,10 @@
         <v>71</v>
       </c>
       <c r="E502" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2</v>
       </c>
@@ -10257,10 +10273,10 @@
         <v>71</v>
       </c>
       <c r="E503" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2</v>
       </c>
@@ -10274,10 +10290,10 @@
         <v>71</v>
       </c>
       <c r="E504" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2</v>
       </c>
@@ -10291,10 +10307,10 @@
         <v>71</v>
       </c>
       <c r="E505" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10308,10 +10324,10 @@
         <v>71</v>
       </c>
       <c r="E506" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10325,10 +10341,10 @@
         <v>72</v>
       </c>
       <c r="E507" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10342,10 +10358,10 @@
         <v>72</v>
       </c>
       <c r="E508" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10359,10 +10375,10 @@
         <v>72</v>
       </c>
       <c r="E509" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2</v>
       </c>
@@ -10376,10 +10392,10 @@
         <v>72</v>
       </c>
       <c r="E510" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2</v>
       </c>
@@ -10393,10 +10409,10 @@
         <v>72</v>
       </c>
       <c r="E511" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2</v>
       </c>
@@ -10410,10 +10426,10 @@
         <v>73</v>
       </c>
       <c r="E512" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2</v>
       </c>
@@ -10427,10 +10443,10 @@
         <v>73</v>
       </c>
       <c r="E513" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2</v>
       </c>
@@ -10444,10 +10460,10 @@
         <v>73</v>
       </c>
       <c r="E514" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2</v>
       </c>
@@ -10461,10 +10477,10 @@
         <v>73</v>
       </c>
       <c r="E515" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2</v>
       </c>
@@ -10478,10 +10494,10 @@
         <v>73</v>
       </c>
       <c r="E516" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2</v>
       </c>
@@ -10495,10 +10511,10 @@
         <v>73</v>
       </c>
       <c r="E517" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2</v>
       </c>
@@ -10512,10 +10528,10 @@
         <v>73</v>
       </c>
       <c r="E518" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2</v>
       </c>
@@ -10529,10 +10545,10 @@
         <v>73</v>
       </c>
       <c r="E519" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2</v>
       </c>
@@ -10546,10 +10562,10 @@
         <v>73</v>
       </c>
       <c r="E520" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2</v>
       </c>
@@ -10563,10 +10579,10 @@
         <v>73</v>
       </c>
       <c r="E521" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2</v>
       </c>
@@ -10580,10 +10596,10 @@
         <v>73</v>
       </c>
       <c r="E522" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2</v>
       </c>
@@ -10597,10 +10613,10 @@
         <v>73</v>
       </c>
       <c r="E523" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2</v>
       </c>
@@ -10614,10 +10630,10 @@
         <v>73</v>
       </c>
       <c r="E524" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2</v>
       </c>
@@ -10631,10 +10647,10 @@
         <v>73</v>
       </c>
       <c r="E525" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2</v>
       </c>
@@ -10648,10 +10664,10 @@
         <v>73</v>
       </c>
       <c r="E526" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2</v>
       </c>
@@ -10665,10 +10681,10 @@
         <v>73</v>
       </c>
       <c r="E527" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2</v>
       </c>
@@ -10682,10 +10698,10 @@
         <v>73</v>
       </c>
       <c r="E528" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2</v>
       </c>
@@ -10699,10 +10715,10 @@
         <v>76</v>
       </c>
       <c r="E529" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2</v>
       </c>
@@ -10716,10 +10732,10 @@
         <v>76</v>
       </c>
       <c r="E530" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2</v>
       </c>
@@ -10733,10 +10749,10 @@
         <v>76</v>
       </c>
       <c r="E531" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2</v>
       </c>
@@ -10750,10 +10766,10 @@
         <v>76</v>
       </c>
       <c r="E532" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2</v>
       </c>
@@ -10767,10 +10783,10 @@
         <v>76</v>
       </c>
       <c r="E533" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2</v>
       </c>
@@ -10784,10 +10800,10 @@
         <v>76</v>
       </c>
       <c r="E534" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2</v>
       </c>
@@ -10801,10 +10817,10 @@
         <v>77</v>
       </c>
       <c r="E535" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2</v>
       </c>
@@ -10818,10 +10834,10 @@
         <v>77</v>
       </c>
       <c r="E536" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2</v>
       </c>
@@ -10835,10 +10851,10 @@
         <v>77</v>
       </c>
       <c r="E537" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2</v>
       </c>
@@ -10852,10 +10868,10 @@
         <v>77</v>
       </c>
       <c r="E538" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2</v>
       </c>
@@ -10869,10 +10885,10 @@
         <v>77</v>
       </c>
       <c r="E539" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2</v>
       </c>
@@ -10886,10 +10902,10 @@
         <v>78</v>
       </c>
       <c r="E540" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2</v>
       </c>
@@ -10903,10 +10919,10 @@
         <v>78</v>
       </c>
       <c r="E541" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2</v>
       </c>
@@ -10920,10 +10936,10 @@
         <v>78</v>
       </c>
       <c r="E542" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2</v>
       </c>
@@ -10937,10 +10953,10 @@
         <v>78</v>
       </c>
       <c r="E543" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2</v>
       </c>
@@ -10954,10 +10970,10 @@
         <v>78</v>
       </c>
       <c r="E544" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2</v>
       </c>
@@ -10971,10 +10987,10 @@
         <v>78</v>
       </c>
       <c r="E545" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2</v>
       </c>
@@ -10988,10 +11004,10 @@
         <v>81</v>
       </c>
       <c r="E546" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2</v>
       </c>
@@ -11005,10 +11021,10 @@
         <v>81</v>
       </c>
       <c r="E547" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2</v>
       </c>
@@ -11022,10 +11038,10 @@
         <v>81</v>
       </c>
       <c r="E548" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2</v>
       </c>
@@ -11039,10 +11055,10 @@
         <v>81</v>
       </c>
       <c r="E549" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2</v>
       </c>
@@ -11056,10 +11072,10 @@
         <v>84</v>
       </c>
       <c r="E550" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2</v>
       </c>
@@ -11073,10 +11089,10 @@
         <v>84</v>
       </c>
       <c r="E551" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2</v>
       </c>
@@ -11090,10 +11106,10 @@
         <v>84</v>
       </c>
       <c r="E552" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2</v>
       </c>
@@ -11107,10 +11123,10 @@
         <v>84</v>
       </c>
       <c r="E553" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2</v>
       </c>
@@ -11124,10 +11140,10 @@
         <v>87</v>
       </c>
       <c r="E554" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2</v>
       </c>
@@ -11141,10 +11157,10 @@
         <v>87</v>
       </c>
       <c r="E555" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2</v>
       </c>
@@ -11158,10 +11174,10 @@
         <v>87</v>
       </c>
       <c r="E556" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2</v>
       </c>
@@ -11175,10 +11191,10 @@
         <v>87</v>
       </c>
       <c r="E557" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2</v>
       </c>
@@ -11192,10 +11208,10 @@
         <v>87</v>
       </c>
       <c r="E558" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2</v>
       </c>
@@ -11209,10 +11225,10 @@
         <v>87</v>
       </c>
       <c r="E559" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2</v>
       </c>
@@ -11226,10 +11242,10 @@
         <v>87</v>
       </c>
       <c r="E560" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2</v>
       </c>
@@ -11243,10 +11259,10 @@
         <v>88</v>
       </c>
       <c r="E561" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2</v>
       </c>
@@ -11260,10 +11276,10 @@
         <v>88</v>
       </c>
       <c r="E562" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2</v>
       </c>
@@ -11277,10 +11293,10 @@
         <v>88</v>
       </c>
       <c r="E563" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2</v>
       </c>
@@ -11294,10 +11310,10 @@
         <v>88</v>
       </c>
       <c r="E564" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2</v>
       </c>
@@ -11311,10 +11327,10 @@
         <v>88</v>
       </c>
       <c r="E565" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2</v>
       </c>
@@ -11328,10 +11344,10 @@
         <v>88</v>
       </c>
       <c r="E566" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2</v>
       </c>
@@ -11345,10 +11361,10 @@
         <v>88</v>
       </c>
       <c r="E567" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2</v>
       </c>
@@ -11362,10 +11378,10 @@
         <v>90</v>
       </c>
       <c r="E568" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2</v>
       </c>
@@ -11379,10 +11395,10 @@
         <v>90</v>
       </c>
       <c r="E569" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2</v>
       </c>
@@ -11396,10 +11412,10 @@
         <v>90</v>
       </c>
       <c r="E570" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2</v>
       </c>
@@ -11413,10 +11429,10 @@
         <v>92</v>
       </c>
       <c r="E571" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2</v>
       </c>
@@ -11430,10 +11446,10 @@
         <v>92</v>
       </c>
       <c r="E572" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2</v>
       </c>
@@ -11447,10 +11463,10 @@
         <v>92</v>
       </c>
       <c r="E573" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2</v>
       </c>
@@ -11464,10 +11480,10 @@
         <v>92</v>
       </c>
       <c r="E574" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2</v>
       </c>
@@ -11481,10 +11497,10 @@
         <v>92</v>
       </c>
       <c r="E575" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2</v>
       </c>
@@ -11498,10 +11514,10 @@
         <v>92</v>
       </c>
       <c r="E576" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>2</v>
       </c>
@@ -11515,10 +11531,10 @@
         <v>92</v>
       </c>
       <c r="E577" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2</v>
       </c>
@@ -11532,10 +11548,10 @@
         <v>92</v>
       </c>
       <c r="E578" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2</v>
       </c>
@@ -11549,10 +11565,10 @@
         <v>92</v>
       </c>
       <c r="E579" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>2</v>
       </c>
@@ -11566,10 +11582,10 @@
         <v>92</v>
       </c>
       <c r="E580" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>2</v>
       </c>
@@ -11583,10 +11599,10 @@
         <v>92</v>
       </c>
       <c r="E581" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2</v>
       </c>
@@ -11600,10 +11616,10 @@
         <v>92</v>
       </c>
       <c r="E582" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="583" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>2</v>
       </c>
@@ -11617,10 +11633,10 @@
         <v>92</v>
       </c>
       <c r="E583" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="584" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2</v>
       </c>
@@ -11634,10 +11650,10 @@
         <v>92</v>
       </c>
       <c r="E584" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="585" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>2</v>
       </c>
@@ -11651,10 +11667,10 @@
         <v>92</v>
       </c>
       <c r="E585" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="586" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>2</v>
       </c>
@@ -11668,10 +11684,10 @@
         <v>92</v>
       </c>
       <c r="E586" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="587" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2</v>
       </c>
@@ -11685,10 +11701,10 @@
         <v>92</v>
       </c>
       <c r="E587" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="588" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>2</v>
       </c>
@@ -11702,10 +11718,10 @@
         <v>92</v>
       </c>
       <c r="E588" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="589" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2</v>
       </c>
@@ -11719,10 +11735,10 @@
         <v>92</v>
       </c>
       <c r="E589" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="590" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>2</v>
       </c>
@@ -11736,10 +11752,10 @@
         <v>92</v>
       </c>
       <c r="E590" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="591" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>2</v>
       </c>
@@ -11753,7 +11769,7 @@
         <v>92</v>
       </c>
       <c r="E591" t="s">
-        <v>443</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
